--- a/data/data-fabrication-cables.xlsx
+++ b/data/data-fabrication-cables.xlsx
@@ -7,8 +7,10 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="BEAM SOUTH" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="BEAM NORTH" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="SOUTH" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="WEST" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NORTH" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="EAST" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -771,6 +773,275 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>601</v>
+      </c>
+      <c r="F1" t="n">
+        <v>837.3</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1019.3</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1161.5</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1278.7</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1385.3</v>
+      </c>
+      <c r="K1" t="n">
+        <v>1496.2</v>
+      </c>
+      <c r="L1" t="n">
+        <v>1628.1</v>
+      </c>
+      <c r="M1" t="n">
+        <v>1797.4</v>
+      </c>
+      <c r="N1" t="n">
+        <v>1876.1</v>
+      </c>
+      <c r="O1" t="n">
+        <v>1976.1</v>
+      </c>
+      <c r="P1" t="n">
+        <v>2076.1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>320.9</v>
+      </c>
+      <c r="E2" t="n">
+        <v>543.8</v>
+      </c>
+      <c r="F2" t="n">
+        <v>759.6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>933.4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1072.9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1190</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1296.2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1403.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1522.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1665.3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1712.1</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1812.1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1912.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>259</v>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>309</v>
+      </c>
+      <c r="E3" t="n">
+        <v>523.4</v>
+      </c>
+      <c r="F3" t="n">
+        <v>732</v>
+      </c>
+      <c r="G3" t="n">
+        <v>902.8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1041.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1158.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1264.6</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1370</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1485.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1617.8</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1653.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1753.5</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1853.5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>278</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>320.9</v>
+      </c>
+      <c r="E4" t="n">
+        <v>543.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>759.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>933.4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1072.9</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1296.2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1403.1</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1522.8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1665.3</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1712.1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1812.1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1912.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>54</v>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>200</v>
+      </c>
+      <c r="D5" t="n">
+        <v>352.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>601</v>
+      </c>
+      <c r="F5" t="n">
+        <v>837.3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1019.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1161.5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1278.7</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1385.3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1496.2</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1628.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1797.4</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1876.1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1976.1</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2076.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1188,4 +1459,235 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B1" t="n">
+        <v>100</v>
+      </c>
+      <c r="C1" t="n">
+        <v>200</v>
+      </c>
+      <c r="D1" t="n">
+        <v>747.5</v>
+      </c>
+      <c r="E1" t="n">
+        <v>952</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1153.5</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1345.5</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1529.8</v>
+      </c>
+      <c r="I1" t="n">
+        <v>1711</v>
+      </c>
+      <c r="J1" t="n">
+        <v>1892.3</v>
+      </c>
+      <c r="K1" t="n">
+        <v>2076.5</v>
+      </c>
+      <c r="L1" t="n">
+        <v>2268.5</v>
+      </c>
+      <c r="M1" t="n">
+        <v>2470</v>
+      </c>
+      <c r="N1" t="n">
+        <v>2674.6</v>
+      </c>
+      <c r="O1" t="n">
+        <v>3222.1</v>
+      </c>
+      <c r="P1" t="n">
+        <v>3322.1</v>
+      </c>
+      <c r="Q1" t="n">
+        <v>3422.1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>270</v>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>200</v>
+      </c>
+      <c r="D2" t="n">
+        <v>625.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>846.4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1063.9</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1271.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1469.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1664.3</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1859.1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2057.5</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2264.8</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2482.3</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2702.9</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3128.6</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3228.6</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3328.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>117</v>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>200</v>
+      </c>
+      <c r="D3" t="n">
+        <v>564.4</v>
+      </c>
+      <c r="E3" t="n">
+        <v>815.8</v>
+      </c>
+      <c r="F3" t="n">
+        <v>1061</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1287.4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1498.8</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1704.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1910.2</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2121.6</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2348</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2593.1</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2844.6</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3209</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3309</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3409</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>107</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>200</v>
+      </c>
+      <c r="D4" t="n">
+        <v>538.7</v>
+      </c>
+      <c r="E4" t="n">
+        <v>841.4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1127.5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1374.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1595.7</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1807.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2019.5</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2240.6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2487.8</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2773.8</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3076.5</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3415.2</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3515.2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3615.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>